--- a/src/main/java/com/qa/testdata/APITestData.xlsx
+++ b/src/main/java/com/qa/testdata/APITestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\PetStoreAutomation\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCEE1A-3ADE-4904-BC06-D384F330970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C2682E-687A-45F4-BA64-C6149D7566CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WeatherInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="PetInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>url2</t>
+  </si>
+  <si>
+    <t>petId</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -422,25 +422,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -448,22 +448,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,22 +471,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -494,25 +494,26 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>